--- a/src/test/resources/testdata/data.xlsx
+++ b/src/test/resources/testdata/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robespierre/eclipse-workspace/Hrms/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7AEDE7-9FD1-ED40-ACD9-819CA1956999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859E367-D345-7D44-85E8-E2F79307E69E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{17C483A7-9768-7449-A6F5-632F92B6E8B1}"/>
+    <workbookView xWindow="2500" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{17C483A7-9768-7449-A6F5-632F92B6E8B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>First Name</t>
   </si>
@@ -154,6 +154,63 @@
   </si>
   <si>
     <t>Jessy33ws2a</t>
+  </si>
+  <si>
+    <t>999-777-222</t>
+  </si>
+  <si>
+    <t>2016-Jun-12</t>
+  </si>
+  <si>
+    <t>222-11-1111</t>
+  </si>
+  <si>
+    <t>432-234</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>1987-Feb-05</t>
+  </si>
+  <si>
+    <t>Lion790</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Driver License</t>
+  </si>
+  <si>
+    <t>Lisence issue date</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>DoB</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Sri Lankan</t>
   </si>
 </sst>
 </file>
@@ -597,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91375FA7-95BA-1049-AEC8-901B7CC2E3A5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,14 +870,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7E28C9-5A6B-6349-BF30-1C8122866C50}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="10" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>